--- a/02_activities/assignments/assignment_4/retail_sales_dataset (excel).xlsx
+++ b/02_activities/assignments/assignment_4/retail_sales_dataset (excel).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TazeenQ\visualization\02_activities\assignments\assignment_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC796AE-7EB7-4B13-9652-0DB5A16B0198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5A3091-9906-4AE2-A2E8-0FD1E9B1CB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{62D1713B-BEF5-43D8-B872-E3C365543C6F}"/>
   </bookViews>
@@ -6105,7 +6105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1600" b="1"/>
-              <a:t>Revenue by Gender and Product Category, (number)</a:t>
+              <a:t>Revenue by Gender and Product Category, ($)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -39199,8 +39199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE8FAD5-AE38-4680-8F53-4C440B14B0E5}">
   <dimension ref="A1:BO216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
